--- a/AA.XLSX
+++ b/AA.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Прямая</t>
   </si>
@@ -22,10 +22,19 @@
     <t>R</t>
   </si>
   <si>
-    <t>P50</t>
+    <t>Р65'</t>
   </si>
   <si>
-    <t>P65</t>
+    <t>"Р65"</t>
+  </si>
+  <si>
+    <t>Р65</t>
+  </si>
+  <si>
+    <t>Р50</t>
+  </si>
+  <si>
+    <t>"Р50"</t>
   </si>
 </sst>
 </file>
@@ -61,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -367,26 +377,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>400</v>
       </c>
@@ -396,8 +415,17 @@
       <c r="C2">
         <v>2480</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>2480</v>
+      </c>
+      <c r="E2">
+        <v>2380</v>
+      </c>
+      <c r="F2">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>450</v>
       </c>
@@ -407,8 +435,17 @@
       <c r="C3">
         <v>2647</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>2647</v>
+      </c>
+      <c r="E3">
+        <v>2522</v>
+      </c>
+      <c r="F3">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -418,8 +455,17 @@
       <c r="C4">
         <v>2815</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>2815</v>
+      </c>
+      <c r="E4">
+        <v>2665</v>
+      </c>
+      <c r="F4">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>550</v>
       </c>
@@ -429,8 +475,17 @@
       <c r="C5">
         <v>2982</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>2982</v>
+      </c>
+      <c r="E5">
+        <v>2807</v>
+      </c>
+      <c r="F5">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>600</v>
       </c>
@@ -440,8 +495,17 @@
       <c r="C6">
         <v>3150</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>3150</v>
+      </c>
+      <c r="E6">
+        <v>2950</v>
+      </c>
+      <c r="F6">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>650</v>
       </c>
@@ -451,8 +515,17 @@
       <c r="C7">
         <v>3265</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>3265</v>
+      </c>
+      <c r="E7">
+        <v>3042</v>
+      </c>
+      <c r="F7">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>700</v>
       </c>
@@ -462,8 +535,17 @@
       <c r="C8">
         <v>3380</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>3380</v>
+      </c>
+      <c r="E8">
+        <v>3135</v>
+      </c>
+      <c r="F8">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>750</v>
       </c>
@@ -473,8 +555,17 @@
       <c r="C9">
         <v>3495</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>3495</v>
+      </c>
+      <c r="E9">
+        <v>3227</v>
+      </c>
+      <c r="F9">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>800</v>
       </c>
@@ -484,8 +575,17 @@
       <c r="C10">
         <v>3610</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>3610</v>
+      </c>
+      <c r="E10">
+        <v>3320</v>
+      </c>
+      <c r="F10">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>850</v>
       </c>
@@ -495,8 +595,17 @@
       <c r="C11">
         <v>3665</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>3665</v>
+      </c>
+      <c r="E11">
+        <v>3390</v>
+      </c>
+      <c r="F11">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>900</v>
       </c>
@@ -506,8 +615,17 @@
       <c r="C12">
         <v>3720</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>3720</v>
+      </c>
+      <c r="E12">
+        <v>3460</v>
+      </c>
+      <c r="F12">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -517,8 +635,17 @@
       <c r="C13">
         <v>3775</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>3775</v>
+      </c>
+      <c r="E13">
+        <v>3530</v>
+      </c>
+      <c r="F13">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1000</v>
       </c>
@@ -528,8 +655,17 @@
       <c r="C14">
         <v>3830</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>3830</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -537,6 +673,15 @@
         <v>5170</v>
       </c>
       <c r="C15">
+        <v>5830</v>
+      </c>
+      <c r="D15">
+        <v>5830</v>
+      </c>
+      <c r="E15">
+        <v>5170</v>
+      </c>
+      <c r="F15">
         <v>5830</v>
       </c>
     </row>
